--- a/Bioimpedanciometro_Sketch_Funcional_2.0/Datos Bioimpedanciometro.xlsx
+++ b/Bioimpedanciometro_Sketch_Funcional_2.0/Datos Bioimpedanciometro.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$E$5:$F$11</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Valor medido</t>
   </si>
@@ -73,12 +78,30 @@
   <si>
     <t>Promedio</t>
   </si>
+  <si>
+    <t>y = -0,5394x + 11162</t>
+  </si>
+  <si>
+    <t>y = -1,5257x + 31046</t>
+  </si>
+  <si>
+    <t>Valor Teorico</t>
+  </si>
+  <si>
+    <t>Magnitud</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +124,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,15 +162,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +201,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,7 +259,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -264,7 +338,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2127515310586174E-2"/>
+                  <c:y val="-0.17799905220180812"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -295,7 +374,48 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20148.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19981.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19660.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19447.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Hoja1!$A$5:$A$10</c:f>
               <c:numCache>
@@ -321,33 +441,6 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$F$5:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>20259</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20148.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19981.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19660.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19447.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18637</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -361,11 +454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-64914448"/>
-        <c:axId val="-64913904"/>
+        <c:axId val="86940976"/>
+        <c:axId val="86942608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-64914448"/>
+        <c:axId val="86940976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +501,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64913904"/>
+        <c:crossAx val="86942608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -416,7 +509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-64913904"/>
+        <c:axId val="86942608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +560,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-64914448"/>
+        <c:crossAx val="86940976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -481,7 +574,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -563,7 +655,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -681,6 +772,33 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
+              <c:f>Hoja1!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20243.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20168.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20085.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19983.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19661.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Hoja1!$H$5:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -705,33 +823,6 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$M$5:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>20243.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20168.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20085.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19983.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19823</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19661.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -745,11 +836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071055296"/>
-        <c:axId val="-2071054752"/>
+        <c:axId val="404658976"/>
+        <c:axId val="404670944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071055296"/>
+        <c:axId val="404658976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +883,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071054752"/>
+        <c:crossAx val="404670944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -800,7 +891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071054752"/>
+        <c:axId val="404670944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -851,7 +942,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071055296"/>
+        <c:crossAx val="404658976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -865,7 +956,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -906,6 +996,2194 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor medido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$6:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19447.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19660.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19981.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20148.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$6:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404661696"/>
+        <c:axId val="404658432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404661696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404658432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404658432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404661696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor medido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$20:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19661.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19983.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20085.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20168.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20243.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$20:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404656256"/>
+        <c:axId val="404666592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404656256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404666592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404666592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404656256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Ec. Grafica 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14322843790867604"/>
+                  <c:y val="-0.33965438432306438"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20164.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20218.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20265.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404659520"/>
+        <c:axId val="404657344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404659520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404657344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404657344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404659520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ec. Grafica 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19899517750592594"/>
+                  <c:y val="-0.18388080512920696"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$G$14:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19859.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20101.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404670400"/>
+        <c:axId val="404660064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404670400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404660064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404660064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404670400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ec. Grafica 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11382806601229641"/>
+                  <c:y val="0.16025565048826404"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$G$22:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19318.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19408.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19618.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$22:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404661152"/>
+        <c:axId val="404663872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404661152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404663872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404663872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404661152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ec. Grafica 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14346599532201332"/>
+                  <c:y val="-0.18736672938716514"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$G$31:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18370.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19101.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$31:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404665504"/>
+        <c:axId val="404668224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404665504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404668224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404668224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404665504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1012,6 +3290,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2014,6 +4532,3234 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2075,6 +7821,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2348,8 +8284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M4" activeCellId="1" sqref="H4:H10 M4:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,297 +8302,297 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>100</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>20240</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>20260</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>20265</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>20271</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f>(B5+C5+D5+E5)/4</f>
         <v>20259</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>20231</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>20261</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>20278</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>20204</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <f>(I5+J5+K5+L5)/4</f>
         <v>20243.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>220</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>20156</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>20133</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>20162</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>20142</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" ref="F6:F10" si="0">(B6+C6+D6+E6)/4</f>
         <v>20148.25</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>220</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>20174</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>20145</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>20159</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>20195</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <f t="shared" ref="M6:M10" si="1">(I6+J6+K6+L6)/4</f>
         <v>20168.25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>470</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>19965</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>19999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>19992</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>19971</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>19981.75</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>470</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>20074</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>20096</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>20083</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>20089</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
         <v>20085.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>680</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>19654</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>19691</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>19653</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>19644</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>19660.5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>680</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>20005</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>19984</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>19972</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>19974</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <f t="shared" si="1"/>
         <v>19983.75</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>780</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>19426</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>19456</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>19446</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>19461</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>19447.25</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>780</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>19770</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>19795</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>19866</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>19861</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <f t="shared" si="1"/>
         <v>19823</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>1000</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>18645</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>18626</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>18635</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>18642</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>18637</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>19635</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>19691</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>19633</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>19688</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
         <v>19661.75</v>
       </c>
@@ -2670,4 +8606,845 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>18637</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="2">
+        <f>-0.5394*D6+11162</f>
+        <v>1109.2021999999997</v>
+      </c>
+      <c r="G6" s="2">
+        <f>((E6-F6)/E6)*100</f>
+        <v>-10.920219999999972</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>19447.25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>780</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F11" si="0">-0.5394*D7+11162</f>
+        <v>672.1533500000005</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7:G11" si="1">((E7-F7)/E7)*100</f>
+        <v>13.826493589743524</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>19660.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>680</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>557.1262999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>18.069661764705895</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>19981.75</v>
+      </c>
+      <c r="E9" s="3">
+        <v>470</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>383.8440499999997</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>18.331053191489428</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>20148.25</v>
+      </c>
+      <c r="E10" s="3">
+        <v>220</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>294.03395000000091</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>-33.651795454545869</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>20259</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>234.29540000000088</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>-134.29540000000088</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <v>19661.75</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="2">
+        <f>-1.5257*D20+31046</f>
+        <v>1048.0680250000005</v>
+      </c>
+      <c r="G20" s="2">
+        <f>((E20-F20)/E20)*100</f>
+        <v>-4.8068025000000487</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <v>19823</v>
+      </c>
+      <c r="E21" s="3">
+        <v>780</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:F25" si="2">-1.5257*D21+31046</f>
+        <v>802.04889999999796</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ref="G21:G25" si="3">((E21-F21)/E21)*100</f>
+        <v>-2.8267820512817896</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>19983.75</v>
+      </c>
+      <c r="E22" s="3">
+        <v>680</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>556.79262499999822</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>18.11873161764732</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <v>20085.5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>470</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>401.55264999999781</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>14.563265957447275</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>20168.25</v>
+      </c>
+      <c r="E24" s="3">
+        <v>220</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>275.30097499999829</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>-25.136806818181039</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <v>20243.5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>160.49204999999711</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>-60.492049999997107</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D20:E25">
+    <sortCondition ref="D19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>220</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20165</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20174</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20167</v>
+      </c>
+      <c r="F6" s="9">
+        <v>20153</v>
+      </c>
+      <c r="G6" s="3">
+        <f>(C6+D6+E6+F6)/4</f>
+        <v>20164.75</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(-0.6721*G6)+13748</f>
+        <v>195.27152500000011</v>
+      </c>
+      <c r="I6" s="2">
+        <f>((B6-H6)/B6)*100</f>
+        <v>11.240215909090859</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>147</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20211</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20199</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20254</v>
+      </c>
+      <c r="F7" s="9">
+        <v>20211</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G8" si="0">(C7+D7+E7+F7)/4</f>
+        <v>20218.75</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H8" si="1">(-0.6721*G7)+13748</f>
+        <v>158.97812499999964</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7:I8" si="2">((B7-H7)/B7)*100</f>
+        <v>-8.1483843537412497</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20269</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20263</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20258</v>
+      </c>
+      <c r="F8" s="9">
+        <v>20272</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>20265.5</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>127.55745000000024</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>-27.557450000000244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="J9">
+        <v>20137.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="J10">
+        <f>(J9+J12)/2</f>
+        <v>20161.599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="J12">
+        <v>20186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>470</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19860</v>
+      </c>
+      <c r="D14" s="3">
+        <v>19870</v>
+      </c>
+      <c r="E14" s="3">
+        <v>19857</v>
+      </c>
+      <c r="F14" s="9">
+        <v>19852</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(C14+D14+E14+F14)/4</f>
+        <v>19859.75</v>
+      </c>
+      <c r="H14" s="2">
+        <f>(-1.0844*G14)+22116</f>
+        <v>580.08710000000065</v>
+      </c>
+      <c r="I14" s="2">
+        <f>((B14-H14)/B14)*100</f>
+        <v>-23.422787234042691</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>320</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20089</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20106</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20109</v>
+      </c>
+      <c r="F15" s="9">
+        <v>20102</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ref="G15:G16" si="3">(C15+D15+E15+F15)/4</f>
+        <v>20101.5</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15:H16" si="4">(-1.0844*G15)+22116</f>
+        <v>317.93339999999807</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" ref="I15:I16" si="5">((B15-H15)/B15)*100</f>
+        <v>0.64581250000060209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>277</v>
+      </c>
+      <c r="C16" s="3">
+        <v>20142</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20120</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20141</v>
+      </c>
+      <c r="F16" s="9">
+        <v>20137</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>20135</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>281.60599999999977</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>-1.6628158844764502</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="J17">
+        <v>19816</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="J18">
+        <f>(J17+J20)/2</f>
+        <v>19783.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="J20">
+        <v>19751</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>727</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19338</v>
+      </c>
+      <c r="D22" s="3">
+        <v>19345</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19292</v>
+      </c>
+      <c r="F22" s="9">
+        <v>19299</v>
+      </c>
+      <c r="G22" s="3">
+        <f>(C22+D22+E22+F22)/4</f>
+        <v>19318.5</v>
+      </c>
+      <c r="H22" s="2">
+        <f>(-0.5115*G22)+10729</f>
+        <v>847.58725000000049</v>
+      </c>
+      <c r="I22" s="2">
+        <f>((B22-H22)/B22)*100</f>
+        <v>-16.586966987620425</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>680</v>
+      </c>
+      <c r="C23" s="3">
+        <v>19403</v>
+      </c>
+      <c r="D23" s="3">
+        <v>19414</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19410</v>
+      </c>
+      <c r="F23" s="9">
+        <v>19408</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23:G24" si="6">(C23+D23+E23+F23)/4</f>
+        <v>19408.75</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:H24" si="7">(-0.5115*G23)+10729</f>
+        <v>801.42437500000051</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" ref="I23:I24" si="8">((B23-H23)/B23)*100</f>
+        <v>-17.856525735294191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>570</v>
+      </c>
+      <c r="C24" s="3">
+        <v>19657</v>
+      </c>
+      <c r="D24" s="3">
+        <v>19604</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19611</v>
+      </c>
+      <c r="F24" s="9">
+        <v>19601</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="6"/>
+        <v>19618.25</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="7"/>
+        <v>694.26512500000172</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="8"/>
+        <v>-21.800899122807319</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="J25">
+        <v>19274</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="J26">
+        <f>(J25+J29)/2</f>
+        <v>19282</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="J29">
+        <v>19290</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>18366</v>
+      </c>
+      <c r="D31" s="3">
+        <v>18374</v>
+      </c>
+      <c r="E31" s="3">
+        <v>18375</v>
+      </c>
+      <c r="F31" s="9">
+        <v>18366</v>
+      </c>
+      <c r="G31" s="3">
+        <f>(C31+D31+E31+F31)/4</f>
+        <v>18370.25</v>
+      </c>
+      <c r="H31" s="2">
+        <f>(-0.2471*G31)+5574.1</f>
+        <v>1034.8112250000004</v>
+      </c>
+      <c r="I31" s="2">
+        <f>((B31-H31)/B31)*100</f>
+        <v>-3.4811225000000374</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>940</v>
+      </c>
+      <c r="C32" s="3">
+        <v>18814</v>
+      </c>
+      <c r="D32" s="3">
+        <v>18797</v>
+      </c>
+      <c r="E32" s="3">
+        <v>18783</v>
+      </c>
+      <c r="F32" s="9">
+        <v>18802</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" ref="G32:G33" si="9">(C32+D32+E32+F32)/4</f>
+        <v>18799</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" ref="H32:H33" si="10">(-0.2471*G32)+5574.1</f>
+        <v>928.86710000000039</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" ref="I32:I33" si="11">((B32-H32)/B32)*100</f>
+        <v>1.1843510638297456</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>780</v>
+      </c>
+      <c r="C33" s="3">
+        <v>19091</v>
+      </c>
+      <c r="D33" s="3">
+        <v>19106</v>
+      </c>
+      <c r="E33" s="3">
+        <v>19101</v>
+      </c>
+      <c r="F33" s="9">
+        <v>19107</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="9"/>
+        <v>19101.25</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="10"/>
+        <v>854.18112500000097</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="11"/>
+        <v>-9.5104006410257664</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Bioimpedanciometro_Sketch_Funcional_2.0/Datos Bioimpedanciometro.xlsx
+++ b/Bioimpedanciometro_Sketch_Funcional_2.0/Datos Bioimpedanciometro.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$E$5:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$E$5:$F$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Valor medido</t>
   </si>
@@ -96,6 +97,48 @@
   <si>
     <t>Valor</t>
   </si>
+  <si>
+    <t>SENSADO DE TEJIDO BIOIMPEDANCIOMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ER-Piel (Placa Completa)[Ω]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ER-Piel (Media Placa)[Ω]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ER-Piel (Placa Espalda)[Ω]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ER-Piel (1/4 Placa)[Ω]</t>
+  </si>
+  <si>
+    <t>*Cambio de Extremidad</t>
+  </si>
+  <si>
+    <t>Impedancia Carne [Ω]</t>
+  </si>
+  <si>
+    <t>Impedancia Infinita [Ω]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impedancia Carne con 5V [Ω] </t>
+  </si>
+  <si>
+    <t>Valor Maximo</t>
+  </si>
+  <si>
+    <t>Valor Minimo</t>
+  </si>
+  <si>
+    <t>Valor Limite Deteccion de Placa</t>
+  </si>
+  <si>
+    <t>Valor Limite Deteccion de Bio</t>
+  </si>
+  <si>
+    <t>Valor desde la espalda a la mano</t>
+  </si>
 </sst>
 </file>
 
@@ -131,15 +174,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -186,11 +253,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,12 +338,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,11 +600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86940976"/>
-        <c:axId val="86942608"/>
+        <c:axId val="-1456634416"/>
+        <c:axId val="-1456633872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86940976"/>
+        <c:axId val="-1456634416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +647,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86942608"/>
+        <c:crossAx val="-1456633872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -509,7 +655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86942608"/>
+        <c:axId val="-1456633872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,7 +706,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86940976"/>
+        <c:crossAx val="-1456634416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,11 +982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404658976"/>
-        <c:axId val="404670944"/>
+        <c:axId val="-1456637680"/>
+        <c:axId val="-1456637136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="404658976"/>
+        <c:axId val="-1456637680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +1029,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404670944"/>
+        <c:crossAx val="-1456637136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +1037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404670944"/>
+        <c:axId val="-1456637136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +1088,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404658976"/>
+        <c:crossAx val="-1456637680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1226,11 +1372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404661696"/>
-        <c:axId val="404658432"/>
+        <c:axId val="-1456633328"/>
+        <c:axId val="-1456636592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404661696"/>
+        <c:axId val="-1456633328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,12 +1428,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404658432"/>
+        <c:crossAx val="-1456636592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404658432"/>
+        <c:axId val="-1456636592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1489,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404661696"/>
+        <c:crossAx val="-1456633328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1584,11 +1730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404656256"/>
-        <c:axId val="404666592"/>
+        <c:axId val="-1456639856"/>
+        <c:axId val="-1456635504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404656256"/>
+        <c:axId val="-1456639856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,12 +1786,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404666592"/>
+        <c:crossAx val="-1456635504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404666592"/>
+        <c:axId val="-1456635504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1847,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404656256"/>
+        <c:crossAx val="-1456639856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1792,7 +1938,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1964,11 +2109,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404659520"/>
-        <c:axId val="404657344"/>
+        <c:axId val="-1456803776"/>
+        <c:axId val="-1456799968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404659520"/>
+        <c:axId val="-1456803776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,12 +2165,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404657344"/>
+        <c:crossAx val="-1456799968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404657344"/>
+        <c:axId val="-1456799968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2226,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404659520"/>
+        <c:crossAx val="-1456803776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2148,7 +2293,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2323,11 +2467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404670400"/>
-        <c:axId val="404660064"/>
+        <c:axId val="-1456803232"/>
+        <c:axId val="-1456802688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404670400"/>
+        <c:axId val="-1456803232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,12 +2523,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404660064"/>
+        <c:crossAx val="-1456802688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404660064"/>
+        <c:axId val="-1456802688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2584,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404670400"/>
+        <c:crossAx val="-1456803232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2507,7 +2651,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2682,11 +2825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404661152"/>
-        <c:axId val="404663872"/>
+        <c:axId val="-1456798880"/>
+        <c:axId val="-1456802144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404661152"/>
+        <c:axId val="-1456798880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,12 +2881,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404663872"/>
+        <c:crossAx val="-1456802144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404663872"/>
+        <c:axId val="-1456802144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,7 +2942,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404661152"/>
+        <c:crossAx val="-1456798880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2866,7 +3009,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3041,11 +3183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404665504"/>
-        <c:axId val="404668224"/>
+        <c:axId val="-1408495632"/>
+        <c:axId val="-1408498352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404665504"/>
+        <c:axId val="-1408495632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,12 +3239,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404668224"/>
+        <c:crossAx val="-1408498352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404668224"/>
+        <c:axId val="-1408498352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,7 +3300,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404665504"/>
+        <c:crossAx val="-1408495632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8302,22 +8444,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -8609,6 +8751,525 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="18">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3">
+        <v>135</v>
+      </c>
+      <c r="D4" s="3">
+        <v>483</v>
+      </c>
+      <c r="E4" s="3">
+        <v>615</v>
+      </c>
+      <c r="F4" s="3">
+        <v>139</v>
+      </c>
+      <c r="G4" s="3">
+        <v>72</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6318</v>
+      </c>
+      <c r="I4" s="3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="18">
+        <v>163</v>
+      </c>
+      <c r="C5" s="3">
+        <v>131</v>
+      </c>
+      <c r="D5" s="3">
+        <v>472</v>
+      </c>
+      <c r="E5" s="3">
+        <v>651</v>
+      </c>
+      <c r="F5" s="3">
+        <v>131</v>
+      </c>
+      <c r="G5" s="3">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6317</v>
+      </c>
+      <c r="I5" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18">
+        <v>149</v>
+      </c>
+      <c r="C6" s="3">
+        <v>129</v>
+      </c>
+      <c r="D6" s="3">
+        <v>507</v>
+      </c>
+      <c r="E6" s="3">
+        <v>626</v>
+      </c>
+      <c r="F6" s="3">
+        <v>202</v>
+      </c>
+      <c r="G6" s="3">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6329</v>
+      </c>
+      <c r="I6" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="18">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3">
+        <v>134</v>
+      </c>
+      <c r="D7" s="3">
+        <v>510</v>
+      </c>
+      <c r="E7" s="3">
+        <v>614</v>
+      </c>
+      <c r="F7" s="3">
+        <v>177</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6321</v>
+      </c>
+      <c r="I7" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18">
+        <v>149</v>
+      </c>
+      <c r="C8" s="3">
+        <v>134</v>
+      </c>
+      <c r="D8" s="3">
+        <v>459</v>
+      </c>
+      <c r="E8" s="3">
+        <v>683</v>
+      </c>
+      <c r="F8" s="3">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6316</v>
+      </c>
+      <c r="I8" s="3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3">
+        <v>492</v>
+      </c>
+      <c r="E9" s="3">
+        <v>642</v>
+      </c>
+      <c r="F9" s="3">
+        <v>145</v>
+      </c>
+      <c r="G9" s="3">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6335</v>
+      </c>
+      <c r="I9" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18">
+        <v>134</v>
+      </c>
+      <c r="C10" s="3">
+        <v>154</v>
+      </c>
+      <c r="D10" s="3">
+        <v>507</v>
+      </c>
+      <c r="E10" s="3">
+        <v>655</v>
+      </c>
+      <c r="F10" s="3">
+        <v>188</v>
+      </c>
+      <c r="G10" s="3">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6338</v>
+      </c>
+      <c r="I10" s="3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18">
+        <v>183</v>
+      </c>
+      <c r="C11" s="3">
+        <v>164</v>
+      </c>
+      <c r="D11" s="3">
+        <v>439</v>
+      </c>
+      <c r="E11" s="3">
+        <v>654</v>
+      </c>
+      <c r="F11" s="3">
+        <v>179</v>
+      </c>
+      <c r="G11" s="3">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6330</v>
+      </c>
+      <c r="I11" s="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18">
+        <v>171</v>
+      </c>
+      <c r="C12" s="3">
+        <v>141</v>
+      </c>
+      <c r="D12" s="3">
+        <v>427</v>
+      </c>
+      <c r="E12" s="3">
+        <v>649</v>
+      </c>
+      <c r="F12" s="3">
+        <v>176</v>
+      </c>
+      <c r="G12" s="3">
+        <v>57</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6327</v>
+      </c>
+      <c r="I12" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18">
+        <v>180</v>
+      </c>
+      <c r="C13" s="3">
+        <v>170</v>
+      </c>
+      <c r="D13" s="3">
+        <v>476</v>
+      </c>
+      <c r="E13" s="3">
+        <v>610</v>
+      </c>
+      <c r="F13" s="3">
+        <v>151</v>
+      </c>
+      <c r="G13" s="3">
+        <v>66</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6326</v>
+      </c>
+      <c r="I13" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="18">
+        <v>139</v>
+      </c>
+      <c r="C14" s="3">
+        <v>134</v>
+      </c>
+      <c r="D14" s="3">
+        <v>486</v>
+      </c>
+      <c r="E14" s="3">
+        <v>661</v>
+      </c>
+      <c r="F14" s="3">
+        <v>165</v>
+      </c>
+      <c r="G14" s="3">
+        <v>79</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6320</v>
+      </c>
+      <c r="I14" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="19">
+        <f>(B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14)/11</f>
+        <v>153</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:I16" si="0">(C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14)/11</f>
+        <v>143.36363636363637</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>641.81818181818187</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>60.18181818181818</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>6325.181818181818</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>304.81818181818181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(B4:B14)</f>
+        <v>183</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:I17" si="1">MAX(C4:C14)</f>
+        <v>170</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>683</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>6338</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <f>MIN(B4:B14)</f>
+        <v>134</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:I18" si="2">MIN(C4:C14)</f>
+        <v>129</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="2"/>
+        <v>427</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>610</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>6316</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <f>D18</f>
+        <v>427</v>
+      </c>
+      <c r="C21">
+        <f>I17</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:G27"/>
   <sheetViews>
@@ -8862,11 +9523,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -8884,12 +9545,12 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
@@ -9029,12 +9690,12 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
@@ -9175,12 +9836,12 @@
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="5" t="s">
         <v>7</v>
       </c>
@@ -9330,12 +9991,12 @@
       <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="5" t="s">
         <v>7</v>
       </c>

--- a/Bioimpedanciometro_Sketch_Funcional_2.0/Datos Bioimpedanciometro.xlsx
+++ b/Bioimpedanciometro_Sketch_Funcional_2.0/Datos Bioimpedanciometro.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$E$5:$F$11</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>Valor medido</t>
   </si>
@@ -307,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,16 +342,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -360,6 +352,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,10 +368,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,11 +607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1456634416"/>
-        <c:axId val="-1456633872"/>
+        <c:axId val="1213203808"/>
+        <c:axId val="1213204352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1456634416"/>
+        <c:axId val="1213203808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,7 +654,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456633872"/>
+        <c:crossAx val="1213204352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -655,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1456633872"/>
+        <c:axId val="1213204352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +713,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456634416"/>
+        <c:crossAx val="1213203808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -760,6 +767,1071 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19052174552947237"/>
+                  <c:y val="-0.17240640217979969"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja5!$G$14:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14002.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14084.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14148.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja5!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1222017392"/>
+        <c:axId val="1222019568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1222017392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222019568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1222019568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222017392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0681102362204724E-2"/>
+                  <c:y val="-9.7500149258413368E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja5!$G$22:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13774.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13848.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja5!$B$22:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1222015760"/>
+        <c:axId val="1222018480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1222015760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222018480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1222018480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222015760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.8102748911871906E-2"/>
+                  <c:y val="-0.13156883637860464"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja5!$G$30:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13307.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13492.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja5!$B$30:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1222022288"/>
+        <c:axId val="1222013040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1222022288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222013040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1222013040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222022288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -982,11 +2054,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1456637680"/>
-        <c:axId val="-1456637136"/>
+        <c:axId val="1213204896"/>
+        <c:axId val="1213206528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1456637680"/>
+        <c:axId val="1213204896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +2101,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456637136"/>
+        <c:crossAx val="1213206528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1037,7 +2109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1456637136"/>
+        <c:axId val="1213206528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +2160,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456637680"/>
+        <c:crossAx val="1213204896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1183,6 +2255,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1279,6 +2352,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1372,11 +2446,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1456633328"/>
-        <c:axId val="-1456636592"/>
+        <c:axId val="1213200544"/>
+        <c:axId val="1213208160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1456633328"/>
+        <c:axId val="1213200544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,12 +2502,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456636592"/>
+        <c:crossAx val="1213208160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1456636592"/>
+        <c:axId val="1213208160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +2563,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456633328"/>
+        <c:crossAx val="1213200544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1556,6 +2630,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1637,6 +2712,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1730,11 +2806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1456639856"/>
-        <c:axId val="-1456635504"/>
+        <c:axId val="1213211968"/>
+        <c:axId val="1213212512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1456639856"/>
+        <c:axId val="1213211968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,12 +2862,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456635504"/>
+        <c:crossAx val="1213212512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1456635504"/>
+        <c:axId val="1213212512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +2923,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456639856"/>
+        <c:crossAx val="1213211968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1938,6 +3014,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2109,11 +3186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1456803776"/>
-        <c:axId val="-1456799968"/>
+        <c:axId val="1213213600"/>
+        <c:axId val="1213214688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1456803776"/>
+        <c:axId val="1213213600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,12 +3242,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456799968"/>
+        <c:crossAx val="1213214688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1456799968"/>
+        <c:axId val="1213214688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +3303,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456803776"/>
+        <c:crossAx val="1213213600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2293,6 +3370,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2467,11 +3545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1456803232"/>
-        <c:axId val="-1456802688"/>
+        <c:axId val="1213199456"/>
+        <c:axId val="1213214144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1456803232"/>
+        <c:axId val="1213199456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,12 +3601,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456802688"/>
+        <c:crossAx val="1213214144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1456802688"/>
+        <c:axId val="1213214144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +3662,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456803232"/>
+        <c:crossAx val="1213199456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2651,6 +3729,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2825,11 +3904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1456798880"/>
-        <c:axId val="-1456802144"/>
+        <c:axId val="1148141760"/>
+        <c:axId val="1148146112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1456798880"/>
+        <c:axId val="1148141760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,12 +3960,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456802144"/>
+        <c:crossAx val="1148146112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1456802144"/>
+        <c:axId val="1148146112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,7 +4021,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1456798880"/>
+        <c:crossAx val="1148141760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3009,6 +4088,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3183,11 +4263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1408495632"/>
-        <c:axId val="-1408498352"/>
+        <c:axId val="1148137408"/>
+        <c:axId val="1148148288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1408495632"/>
+        <c:axId val="1148137408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,12 +4319,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1408498352"/>
+        <c:crossAx val="1148148288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1408498352"/>
+        <c:axId val="1148148288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,7 +4380,362 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1408495632"/>
+        <c:crossAx val="1148137408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17094966902722064"/>
+                  <c:y val="-0.27503669196858621"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja5!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14281.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14482.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14601.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja5!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1219844656"/>
+        <c:axId val="1219842480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1219844656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219842480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1219842480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219844656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3353,6 +4788,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3672,6 +5227,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4175,510 +5770,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5216,7 +6308,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5754,7 +6846,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6292,7 +7384,510 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6830,7 +8425,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7368,7 +8963,2159 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8161,6 +11908,131 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -8424,6 +12296,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="15">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3">
+        <v>135</v>
+      </c>
+      <c r="D4" s="3">
+        <v>483</v>
+      </c>
+      <c r="E4" s="3">
+        <v>615</v>
+      </c>
+      <c r="F4" s="3">
+        <v>139</v>
+      </c>
+      <c r="G4" s="3">
+        <v>72</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6318</v>
+      </c>
+      <c r="I4" s="3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="15">
+        <v>163</v>
+      </c>
+      <c r="C5" s="3">
+        <v>131</v>
+      </c>
+      <c r="D5" s="3">
+        <v>472</v>
+      </c>
+      <c r="E5" s="3">
+        <v>651</v>
+      </c>
+      <c r="F5" s="3">
+        <v>131</v>
+      </c>
+      <c r="G5" s="3">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6317</v>
+      </c>
+      <c r="I5" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="15">
+        <v>149</v>
+      </c>
+      <c r="C6" s="3">
+        <v>129</v>
+      </c>
+      <c r="D6" s="3">
+        <v>507</v>
+      </c>
+      <c r="E6" s="3">
+        <v>626</v>
+      </c>
+      <c r="F6" s="3">
+        <v>202</v>
+      </c>
+      <c r="G6" s="3">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6329</v>
+      </c>
+      <c r="I6" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="15">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3">
+        <v>134</v>
+      </c>
+      <c r="D7" s="3">
+        <v>510</v>
+      </c>
+      <c r="E7" s="3">
+        <v>614</v>
+      </c>
+      <c r="F7" s="3">
+        <v>177</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6321</v>
+      </c>
+      <c r="I7" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="15">
+        <v>149</v>
+      </c>
+      <c r="C8" s="3">
+        <v>134</v>
+      </c>
+      <c r="D8" s="3">
+        <v>459</v>
+      </c>
+      <c r="E8" s="3">
+        <v>683</v>
+      </c>
+      <c r="F8" s="3">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6316</v>
+      </c>
+      <c r="I8" s="3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="15">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3">
+        <v>492</v>
+      </c>
+      <c r="E9" s="3">
+        <v>642</v>
+      </c>
+      <c r="F9" s="3">
+        <v>145</v>
+      </c>
+      <c r="G9" s="3">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6335</v>
+      </c>
+      <c r="I9" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="15">
+        <v>134</v>
+      </c>
+      <c r="C10" s="3">
+        <v>154</v>
+      </c>
+      <c r="D10" s="3">
+        <v>507</v>
+      </c>
+      <c r="E10" s="3">
+        <v>655</v>
+      </c>
+      <c r="F10" s="3">
+        <v>188</v>
+      </c>
+      <c r="G10" s="3">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6338</v>
+      </c>
+      <c r="I10" s="3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15">
+        <v>183</v>
+      </c>
+      <c r="C11" s="3">
+        <v>164</v>
+      </c>
+      <c r="D11" s="3">
+        <v>439</v>
+      </c>
+      <c r="E11" s="3">
+        <v>654</v>
+      </c>
+      <c r="F11" s="3">
+        <v>179</v>
+      </c>
+      <c r="G11" s="3">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6330</v>
+      </c>
+      <c r="I11" s="3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="15">
+        <v>171</v>
+      </c>
+      <c r="C12" s="3">
+        <v>141</v>
+      </c>
+      <c r="D12" s="3">
+        <v>427</v>
+      </c>
+      <c r="E12" s="3">
+        <v>649</v>
+      </c>
+      <c r="F12" s="3">
+        <v>176</v>
+      </c>
+      <c r="G12" s="3">
+        <v>57</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6327</v>
+      </c>
+      <c r="I12" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="15">
+        <v>180</v>
+      </c>
+      <c r="C13" s="3">
+        <v>170</v>
+      </c>
+      <c r="D13" s="3">
+        <v>476</v>
+      </c>
+      <c r="E13" s="3">
+        <v>610</v>
+      </c>
+      <c r="F13" s="3">
+        <v>151</v>
+      </c>
+      <c r="G13" s="3">
+        <v>66</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6326</v>
+      </c>
+      <c r="I13" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="15">
+        <v>139</v>
+      </c>
+      <c r="C14" s="3">
+        <v>134</v>
+      </c>
+      <c r="D14" s="3">
+        <v>486</v>
+      </c>
+      <c r="E14" s="3">
+        <v>661</v>
+      </c>
+      <c r="F14" s="3">
+        <v>165</v>
+      </c>
+      <c r="G14" s="3">
+        <v>79</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6320</v>
+      </c>
+      <c r="I14" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="16">
+        <f>(B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14)/11</f>
+        <v>153</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:I16" si="0">(C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14)/11</f>
+        <v>143.36363636363637</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>641.81818181818187</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>60.18181818181818</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>6325.181818181818</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>304.81818181818181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(B4:B14)</f>
+        <v>183</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:I17" si="1">MAX(C4:C14)</f>
+        <v>170</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>683</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>6338</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <f>MIN(B4:B14)</f>
+        <v>134</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:I18" si="2">MIN(C4:C14)</f>
+        <v>129</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" si="2"/>
+        <v>427</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>610</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>6316</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <f>D18</f>
+        <v>427</v>
+      </c>
+      <c r="C21">
+        <f>I17</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -8444,22 +12835,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -8750,531 +13141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18">
-        <v>140</v>
-      </c>
-      <c r="C4" s="3">
-        <v>135</v>
-      </c>
-      <c r="D4" s="3">
-        <v>483</v>
-      </c>
-      <c r="E4" s="3">
-        <v>615</v>
-      </c>
-      <c r="F4" s="3">
-        <v>139</v>
-      </c>
-      <c r="G4" s="3">
-        <v>72</v>
-      </c>
-      <c r="H4" s="3">
-        <v>6318</v>
-      </c>
-      <c r="I4" s="3">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18">
-        <v>163</v>
-      </c>
-      <c r="C5" s="3">
-        <v>131</v>
-      </c>
-      <c r="D5" s="3">
-        <v>472</v>
-      </c>
-      <c r="E5" s="3">
-        <v>651</v>
-      </c>
-      <c r="F5" s="3">
-        <v>131</v>
-      </c>
-      <c r="G5" s="3">
-        <v>67</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6317</v>
-      </c>
-      <c r="I5" s="3">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18">
-        <v>149</v>
-      </c>
-      <c r="C6" s="3">
-        <v>129</v>
-      </c>
-      <c r="D6" s="3">
-        <v>507</v>
-      </c>
-      <c r="E6" s="3">
-        <v>626</v>
-      </c>
-      <c r="F6" s="3">
-        <v>202</v>
-      </c>
-      <c r="G6" s="3">
-        <v>42</v>
-      </c>
-      <c r="H6" s="3">
-        <v>6329</v>
-      </c>
-      <c r="I6" s="3">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18">
-        <v>135</v>
-      </c>
-      <c r="C7" s="3">
-        <v>134</v>
-      </c>
-      <c r="D7" s="3">
-        <v>510</v>
-      </c>
-      <c r="E7" s="3">
-        <v>614</v>
-      </c>
-      <c r="F7" s="3">
-        <v>177</v>
-      </c>
-      <c r="G7" s="3">
-        <v>45</v>
-      </c>
-      <c r="H7" s="3">
-        <v>6321</v>
-      </c>
-      <c r="I7" s="3">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18">
-        <v>149</v>
-      </c>
-      <c r="C8" s="3">
-        <v>134</v>
-      </c>
-      <c r="D8" s="3">
-        <v>459</v>
-      </c>
-      <c r="E8" s="3">
-        <v>683</v>
-      </c>
-      <c r="F8" s="3">
-        <v>140</v>
-      </c>
-      <c r="G8" s="3">
-        <v>60</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6316</v>
-      </c>
-      <c r="I8" s="3">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18">
-        <v>140</v>
-      </c>
-      <c r="C9" s="3">
-        <v>151</v>
-      </c>
-      <c r="D9" s="3">
-        <v>492</v>
-      </c>
-      <c r="E9" s="3">
-        <v>642</v>
-      </c>
-      <c r="F9" s="3">
-        <v>145</v>
-      </c>
-      <c r="G9" s="3">
-        <v>65</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6335</v>
-      </c>
-      <c r="I9" s="3">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18">
-        <v>134</v>
-      </c>
-      <c r="C10" s="3">
-        <v>154</v>
-      </c>
-      <c r="D10" s="3">
-        <v>507</v>
-      </c>
-      <c r="E10" s="3">
-        <v>655</v>
-      </c>
-      <c r="F10" s="3">
-        <v>188</v>
-      </c>
-      <c r="G10" s="3">
-        <v>61</v>
-      </c>
-      <c r="H10" s="3">
-        <v>6338</v>
-      </c>
-      <c r="I10" s="3">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18">
-        <v>183</v>
-      </c>
-      <c r="C11" s="3">
-        <v>164</v>
-      </c>
-      <c r="D11" s="3">
-        <v>439</v>
-      </c>
-      <c r="E11" s="3">
-        <v>654</v>
-      </c>
-      <c r="F11" s="3">
-        <v>179</v>
-      </c>
-      <c r="G11" s="3">
-        <v>48</v>
-      </c>
-      <c r="H11" s="3">
-        <v>6330</v>
-      </c>
-      <c r="I11" s="3">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="18">
-        <v>171</v>
-      </c>
-      <c r="C12" s="3">
-        <v>141</v>
-      </c>
-      <c r="D12" s="3">
-        <v>427</v>
-      </c>
-      <c r="E12" s="3">
-        <v>649</v>
-      </c>
-      <c r="F12" s="3">
-        <v>176</v>
-      </c>
-      <c r="G12" s="3">
-        <v>57</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6327</v>
-      </c>
-      <c r="I12" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18">
-        <v>180</v>
-      </c>
-      <c r="C13" s="3">
-        <v>170</v>
-      </c>
-      <c r="D13" s="3">
-        <v>476</v>
-      </c>
-      <c r="E13" s="3">
-        <v>610</v>
-      </c>
-      <c r="F13" s="3">
-        <v>151</v>
-      </c>
-      <c r="G13" s="3">
-        <v>66</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6326</v>
-      </c>
-      <c r="I13" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18">
-        <v>139</v>
-      </c>
-      <c r="C14" s="3">
-        <v>134</v>
-      </c>
-      <c r="D14" s="3">
-        <v>486</v>
-      </c>
-      <c r="E14" s="3">
-        <v>661</v>
-      </c>
-      <c r="F14" s="3">
-        <v>165</v>
-      </c>
-      <c r="G14" s="3">
-        <v>79</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6320</v>
-      </c>
-      <c r="I14" s="3">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19">
-        <f>(B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14)/11</f>
-        <v>153</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:I16" si="0">(C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14)/11</f>
-        <v>143.36363636363637</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>478</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>641.81818181818187</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>163</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>60.18181818181818</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>6325.181818181818</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>304.81818181818181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2">
-        <f>MAX(B4:B14)</f>
-        <v>183</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:I17" si="1">MAX(C4:C14)</f>
-        <v>170</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>510</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>683</v>
-      </c>
-      <c r="F17" s="23">
-        <f t="shared" si="1"/>
-        <v>202</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>6338</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2">
-        <f>MIN(B4:B14)</f>
-        <v>134</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:I18" si="2">MIN(C4:C14)</f>
-        <v>129</v>
-      </c>
-      <c r="D18" s="26">
-        <f t="shared" si="2"/>
-        <v>427</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="2"/>
-        <v>610</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="2"/>
-        <v>6316</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <f>D18</f>
-        <v>427</v>
-      </c>
-      <c r="C21">
-        <f>I17</f>
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>1100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A2:I2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9527,8 +13399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9545,12 +13417,12 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
@@ -9690,12 +13562,12 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
@@ -9836,12 +13708,12 @@
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="5" t="s">
         <v>7</v>
       </c>
@@ -9991,12 +13863,12 @@
       <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="5" t="s">
         <v>7</v>
       </c>
@@ -10108,4 +13980,492 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14268</v>
+      </c>
+      <c r="D6" s="3">
+        <v>14155</v>
+      </c>
+      <c r="E6" s="3">
+        <v>14319</v>
+      </c>
+      <c r="F6" s="9">
+        <v>14384</v>
+      </c>
+      <c r="G6" s="3">
+        <f>(C6+D6+E6+F6)/4</f>
+        <v>14281.5</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(-0.3671*G6)+5485.9</f>
+        <v>243.16135000000031</v>
+      </c>
+      <c r="I6" s="2">
+        <f>((B6-H6)/B6)*100</f>
+        <v>-1.3172291666667966</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>180</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14474</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14539</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14350</v>
+      </c>
+      <c r="F7" s="9">
+        <v>14566</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G8" si="0">(C7+D7+E7+F7)/4</f>
+        <v>14482.25</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H8" si="1">(-0.3671*G7)+5485.9</f>
+        <v>169.46602499999972</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7:I8" si="2">((B7-H7)/B7)*100</f>
+        <v>5.8522083333334907</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14694</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14576</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14530</v>
+      </c>
+      <c r="F8" s="9">
+        <v>14606</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>14601.5</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>125.68934999999965</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.741124999999708</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>14181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>14229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>530</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13992</v>
+      </c>
+      <c r="D14" s="3">
+        <v>14029</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13986</v>
+      </c>
+      <c r="F14" s="9">
+        <v>14002</v>
+      </c>
+      <c r="G14" s="3">
+        <f>(C14+D14+E14+F14)/4</f>
+        <v>14002.25</v>
+      </c>
+      <c r="H14" s="2">
+        <f>(-1.143*G14)+16544</f>
+        <v>539.42824999999903</v>
+      </c>
+      <c r="I14" s="2">
+        <f>((B14-H14)/B14)*100</f>
+        <v>-1.7789150943394387</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>470</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14078</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14085</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14106</v>
+      </c>
+      <c r="F15" s="9">
+        <v>14068</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ref="G15:G16" si="3">(C15+D15+E15+F15)/4</f>
+        <v>14084.25</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15:H16" si="4">(-1.143*G15)+16544</f>
+        <v>445.70225000000028</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" ref="I15:I16" si="5">((B15-H15)/B15)*100</f>
+        <v>5.1697340425531326</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>360</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14196</v>
+      </c>
+      <c r="D16" s="3">
+        <v>14081</v>
+      </c>
+      <c r="E16" s="3">
+        <v>14112</v>
+      </c>
+      <c r="F16" s="9">
+        <v>14205</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>14148.5</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>372.26449999999932</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>-3.406805555555366</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>13984</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>13963</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>710</v>
+      </c>
+      <c r="C22" s="28">
+        <v>13795</v>
+      </c>
+      <c r="D22" s="28">
+        <v>13791</v>
+      </c>
+      <c r="E22" s="28">
+        <v>13696</v>
+      </c>
+      <c r="F22" s="9">
+        <v>13817</v>
+      </c>
+      <c r="G22" s="3">
+        <f>(C22+D22+E22+F22)/4</f>
+        <v>13774.75</v>
+      </c>
+      <c r="H22" s="2">
+        <f>(-0.7933*G22)+11637</f>
+        <v>709.49082500000077</v>
+      </c>
+      <c r="I22" s="2">
+        <f>((B22-H22)/B22)*100</f>
+        <v>7.171478873228615E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>650</v>
+      </c>
+      <c r="C23" s="3">
+        <v>13867</v>
+      </c>
+      <c r="D23" s="3">
+        <v>13898</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13803</v>
+      </c>
+      <c r="F23" s="9">
+        <v>13827</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23:G24" si="6">(C23+D23+E23+F23)/4</f>
+        <v>13848.75</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:H24" si="7">(-0.7933*G23)+11637</f>
+        <v>650.78662500000064</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" ref="I23:I24" si="8">((B23-H23)/B23)*100</f>
+        <v>-0.12101923076932929</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>590</v>
+      </c>
+      <c r="C24" s="3">
+        <v>13961</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13988</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13865</v>
+      </c>
+      <c r="F24" s="9">
+        <v>13890</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="6"/>
+        <v>13926</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="7"/>
+        <v>589.5041999999994</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="8"/>
+        <v>8.4033898305186358E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>13711</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>13816</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="3">
+        <v>13330</v>
+      </c>
+      <c r="D30" s="3">
+        <v>13367</v>
+      </c>
+      <c r="E30" s="3">
+        <v>13274</v>
+      </c>
+      <c r="F30" s="9">
+        <v>13260</v>
+      </c>
+      <c r="G30" s="3">
+        <f>(C30+D30+E30+F30)/4</f>
+        <v>13307.75</v>
+      </c>
+      <c r="H30" s="2">
+        <f>(-0.4906*G30)+7538.4</f>
+        <v>1009.6178499999996</v>
+      </c>
+      <c r="I30" s="2">
+        <f>((B30-H30)/B30)*100</f>
+        <v>-0.96178499999996347</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>940</v>
+      </c>
+      <c r="C31" s="3">
+        <v>13490</v>
+      </c>
+      <c r="D31" s="3">
+        <v>13520</v>
+      </c>
+      <c r="E31" s="3">
+        <v>13518</v>
+      </c>
+      <c r="F31" s="9">
+        <v>13442</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" ref="G31:G32" si="9">(C31+D31+E31+F31)/4</f>
+        <v>13492.5</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" ref="H31:H32" si="10">(-0.4906*G31)+7538.4</f>
+        <v>918.97949999999946</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" ref="I31:I32" si="11">((B31-H31)/B31)*100</f>
+        <v>2.2362234042553766</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>830</v>
+      </c>
+      <c r="C32" s="3">
+        <v>13696</v>
+      </c>
+      <c r="D32" s="3">
+        <v>13637</v>
+      </c>
+      <c r="E32" s="3">
+        <v>13675</v>
+      </c>
+      <c r="F32" s="9">
+        <v>13596</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="9"/>
+        <v>13651</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="10"/>
+        <v>841.21939999999995</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="11"/>
+        <v>-1.3517349397590301</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C29:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Bioimpedanciometro_Sketch_Funcional_2.0/Datos Bioimpedanciometro.xlsx
+++ b/Bioimpedanciometro_Sketch_Funcional_2.0/Datos Bioimpedanciometro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja4" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$E$5:$F$11</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Valor medido</t>
   </si>
@@ -139,6 +140,9 @@
   </si>
   <si>
     <t>Valor desde la espalda a la mano</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -308,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,6 +363,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,7 +393,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,11 +629,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1213203808"/>
-        <c:axId val="1213204352"/>
+        <c:axId val="-241758992"/>
+        <c:axId val="-241758448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1213203808"/>
+        <c:axId val="-241758992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +676,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213204352"/>
+        <c:crossAx val="-241758448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -662,7 +684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1213204352"/>
+        <c:axId val="-241758448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,7 +735,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213203808"/>
+        <c:crossAx val="-241758992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -980,11 +1002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1222017392"/>
-        <c:axId val="1222019568"/>
+        <c:axId val="-233720224"/>
+        <c:axId val="-233723488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1222017392"/>
+        <c:axId val="-233720224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,8 +1033,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1035,12 +1058,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222019568"/>
+        <c:crossAx val="-233723488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1222019568"/>
+        <c:axId val="-233723488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1119,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222017392"/>
+        <c:crossAx val="-233720224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1335,11 +1358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1222015760"/>
-        <c:axId val="1222018480"/>
+        <c:axId val="-149949952"/>
+        <c:axId val="-149940704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1222015760"/>
+        <c:axId val="-149949952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,8 +1389,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1390,12 +1414,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222018480"/>
+        <c:crossAx val="-149940704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1222018480"/>
+        <c:axId val="-149940704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1475,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222015760"/>
+        <c:crossAx val="-149949952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1690,11 +1714,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1222022288"/>
-        <c:axId val="1222013040"/>
+        <c:axId val="-149938528"/>
+        <c:axId val="-149943968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1222022288"/>
+        <c:axId val="-149938528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,8 +1745,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1745,12 +1770,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222013040"/>
+        <c:crossAx val="-149943968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1222013040"/>
+        <c:axId val="-149943968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1831,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1222022288"/>
+        <c:crossAx val="-149938528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2054,11 +2079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1213204896"/>
-        <c:axId val="1213206528"/>
+        <c:axId val="-241755728"/>
+        <c:axId val="-241754640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1213204896"/>
+        <c:axId val="-241755728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2126,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213206528"/>
+        <c:crossAx val="-241754640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2109,7 +2134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1213206528"/>
+        <c:axId val="-241754640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2185,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213204896"/>
+        <c:crossAx val="-241755728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2255,7 +2280,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2352,7 +2376,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2446,11 +2469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1213200544"/>
-        <c:axId val="1213208160"/>
+        <c:axId val="-241751920"/>
+        <c:axId val="-241751376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1213200544"/>
+        <c:axId val="-241751920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,12 +2525,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213208160"/>
+        <c:crossAx val="-241751376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1213208160"/>
+        <c:axId val="-241751376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,7 +2586,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213200544"/>
+        <c:crossAx val="-241751920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2630,7 +2653,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2712,7 +2734,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2806,11 +2827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1213211968"/>
-        <c:axId val="1213212512"/>
+        <c:axId val="-233708800"/>
+        <c:axId val="-233715328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1213211968"/>
+        <c:axId val="-233708800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,12 +2883,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213212512"/>
+        <c:crossAx val="-233715328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1213212512"/>
+        <c:axId val="-233715328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +2944,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213211968"/>
+        <c:crossAx val="-233708800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3014,7 +3035,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3186,11 +3206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1213213600"/>
-        <c:axId val="1213214688"/>
+        <c:axId val="-233718048"/>
+        <c:axId val="-233714240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1213213600"/>
+        <c:axId val="-233718048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3242,12 +3262,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213214688"/>
+        <c:crossAx val="-233714240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1213214688"/>
+        <c:axId val="-233714240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,7 +3323,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213213600"/>
+        <c:crossAx val="-233718048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3370,7 +3390,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3545,11 +3564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1213199456"/>
-        <c:axId val="1213214144"/>
+        <c:axId val="-233717504"/>
+        <c:axId val="-233714784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1213199456"/>
+        <c:axId val="-233717504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,12 +3620,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213214144"/>
+        <c:crossAx val="-233714784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1213214144"/>
+        <c:axId val="-233714784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +3681,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1213199456"/>
+        <c:crossAx val="-233717504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3729,7 +3748,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3904,11 +3922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1148141760"/>
-        <c:axId val="1148146112"/>
+        <c:axId val="-233711520"/>
+        <c:axId val="-233712608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1148141760"/>
+        <c:axId val="-233711520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,12 +3978,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148146112"/>
+        <c:crossAx val="-233712608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1148146112"/>
+        <c:axId val="-233712608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4021,7 +4039,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148141760"/>
+        <c:crossAx val="-233711520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4088,7 +4106,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4263,11 +4280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1148137408"/>
-        <c:axId val="1148148288"/>
+        <c:axId val="-233716416"/>
+        <c:axId val="-233708256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1148137408"/>
+        <c:axId val="-233716416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,12 +4336,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148148288"/>
+        <c:crossAx val="-233708256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1148148288"/>
+        <c:axId val="-233708256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4380,7 +4397,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148137408"/>
+        <c:crossAx val="-233716416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4619,11 +4636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219844656"/>
-        <c:axId val="1219842480"/>
+        <c:axId val="-233720768"/>
+        <c:axId val="-233721312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219844656"/>
+        <c:axId val="-233720768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,8 +4667,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4674,12 +4692,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219842480"/>
+        <c:crossAx val="-233721312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219842480"/>
+        <c:axId val="-233721312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,7 +4753,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219844656"/>
+        <c:crossAx val="-233720768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12316,20 +12334,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
@@ -12356,7 +12374,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="15">
         <v>140</v>
       </c>
@@ -12383,7 +12401,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="15">
         <v>163</v>
       </c>
@@ -12410,7 +12428,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="15">
         <v>149</v>
       </c>
@@ -12437,7 +12455,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="15">
         <v>135</v>
       </c>
@@ -12464,7 +12482,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="15">
         <v>149</v>
       </c>
@@ -12491,7 +12509,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="15">
         <v>140</v>
       </c>
@@ -12518,7 +12536,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="15">
         <v>134</v>
       </c>
@@ -12545,7 +12563,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="15">
         <v>183</v>
       </c>
@@ -12572,7 +12590,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="15">
         <v>171</v>
       </c>
@@ -12599,7 +12617,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="15">
         <v>180</v>
       </c>
@@ -12626,7 +12644,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="15">
         <v>139</v>
       </c>
@@ -12653,7 +12671,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -12666,7 +12684,7 @@
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="16">
         <f>(B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14)/11</f>
         <v>153</v>
@@ -12835,22 +12853,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -13417,12 +13435,12 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
@@ -13562,12 +13580,12 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
@@ -13708,12 +13726,12 @@
       <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="5" t="s">
         <v>7</v>
       </c>
@@ -13863,12 +13881,12 @@
       <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="5" t="s">
         <v>7</v>
       </c>
@@ -13986,8 +14004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13999,12 +14017,12 @@
       <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
@@ -14116,12 +14134,12 @@
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="12" t="s">
         <v>7</v>
       </c>
@@ -14233,12 +14251,12 @@
       <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="12" t="s">
         <v>7</v>
       </c>
@@ -14253,13 +14271,13 @@
       <c r="B22" s="3">
         <v>710</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="25">
         <v>13795</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="25">
         <v>13791</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="25">
         <v>13696</v>
       </c>
       <c r="F22" s="9">
@@ -14342,9 +14360,9 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J28">
@@ -14355,12 +14373,12 @@
       <c r="B29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="12" t="s">
         <v>7</v>
       </c>
@@ -14468,4 +14486,498 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="22">
+        <v>100</v>
+      </c>
+      <c r="D5" s="23">
+        <v>150</v>
+      </c>
+      <c r="E5" s="24">
+        <v>200</v>
+      </c>
+      <c r="F5" s="24">
+        <v>250</v>
+      </c>
+      <c r="H5" s="34">
+        <v>300</v>
+      </c>
+      <c r="I5" s="21">
+        <v>350</v>
+      </c>
+      <c r="J5" s="21">
+        <v>400</v>
+      </c>
+      <c r="K5" s="21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19957</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19954</v>
+      </c>
+      <c r="E6" s="3">
+        <v>14224</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14139</v>
+      </c>
+      <c r="H6" s="3">
+        <v>14173</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="33"/>
+      <c r="C7" s="3">
+        <v>19960</v>
+      </c>
+      <c r="D7" s="3">
+        <v>19947</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14247</v>
+      </c>
+      <c r="F7" s="3">
+        <v>14132</v>
+      </c>
+      <c r="H7" s="3">
+        <v>14214</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="3">
+        <v>19968</v>
+      </c>
+      <c r="D8" s="3">
+        <v>19955</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14168</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14122</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14176</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="3">
+        <v>19978</v>
+      </c>
+      <c r="D9" s="3">
+        <v>19916</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14268</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14424</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14152</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="3">
+        <v>19888</v>
+      </c>
+      <c r="D10" s="3">
+        <v>19953</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14145</v>
+      </c>
+      <c r="F10" s="3">
+        <v>14118</v>
+      </c>
+      <c r="H10" s="3">
+        <v>14185</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="3">
+        <v>19970</v>
+      </c>
+      <c r="D11" s="3">
+        <v>19961</v>
+      </c>
+      <c r="E11" s="3">
+        <v>14476</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14143</v>
+      </c>
+      <c r="H11" s="3">
+        <v>14561</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
+      <c r="C12" s="3">
+        <v>19946</v>
+      </c>
+      <c r="D12" s="3">
+        <v>19974</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14175</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14141</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14217</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="3">
+        <v>19969</v>
+      </c>
+      <c r="D13" s="3">
+        <v>19973</v>
+      </c>
+      <c r="E13" s="3">
+        <v>14236</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14184</v>
+      </c>
+      <c r="H13" s="3">
+        <v>14287</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+      <c r="C14" s="3">
+        <v>19977</v>
+      </c>
+      <c r="D14" s="3">
+        <v>19889</v>
+      </c>
+      <c r="E14" s="3">
+        <v>14196</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14196</v>
+      </c>
+      <c r="H14" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="33"/>
+      <c r="C15" s="3">
+        <v>19894</v>
+      </c>
+      <c r="D15" s="3">
+        <v>19962</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14105</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14238</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14184</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+      <c r="C16" s="3">
+        <v>19973</v>
+      </c>
+      <c r="D16" s="3">
+        <v>19882</v>
+      </c>
+      <c r="E16" s="3">
+        <v>14270</v>
+      </c>
+      <c r="F16" s="3">
+        <v>14186</v>
+      </c>
+      <c r="H16" s="3">
+        <v>14155</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="3">
+        <v>19959</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19968</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14304</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14279</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14166</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="3">
+        <v>19971</v>
+      </c>
+      <c r="D18" s="3">
+        <v>19968</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14251</v>
+      </c>
+      <c r="F18" s="3">
+        <v>14279</v>
+      </c>
+      <c r="H18" s="3">
+        <v>14149</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="3">
+        <v>19946</v>
+      </c>
+      <c r="D19" s="3">
+        <v>19969</v>
+      </c>
+      <c r="E19" s="3">
+        <v>14223</v>
+      </c>
+      <c r="F19" s="3">
+        <v>14286</v>
+      </c>
+      <c r="H19" s="3">
+        <v>14266</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
+      <c r="C20" s="3">
+        <v>19906</v>
+      </c>
+      <c r="D20" s="3">
+        <v>19953</v>
+      </c>
+      <c r="E20" s="3">
+        <v>14189</v>
+      </c>
+      <c r="F20" s="3">
+        <v>14174</v>
+      </c>
+      <c r="H20" s="3">
+        <v>14193</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="C21" s="3">
+        <v>19978</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19914</v>
+      </c>
+      <c r="E21" s="3">
+        <v>14237</v>
+      </c>
+      <c r="F21" s="3">
+        <v>14179</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14271</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="3">
+        <v>19952</v>
+      </c>
+      <c r="D22" s="3">
+        <v>19967</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14120</v>
+      </c>
+      <c r="F22" s="3">
+        <v>14210</v>
+      </c>
+      <c r="H22" s="3">
+        <v>14229</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+      <c r="C23" s="3">
+        <v>20001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>19942</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14252</v>
+      </c>
+      <c r="F23" s="3">
+        <v>14144</v>
+      </c>
+      <c r="H23" s="3">
+        <v>14232</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="33"/>
+      <c r="C24" s="3">
+        <v>19956</v>
+      </c>
+      <c r="D24" s="3">
+        <v>19938</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14128</v>
+      </c>
+      <c r="F24" s="3">
+        <v>14122</v>
+      </c>
+      <c r="H24" s="3">
+        <v>14168</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="3">
+        <v>19889</v>
+      </c>
+      <c r="D25" s="3">
+        <v>19986</v>
+      </c>
+      <c r="E25" s="3">
+        <v>14199</v>
+      </c>
+      <c r="F25" s="3">
+        <v>14144</v>
+      </c>
+      <c r="H25" s="3">
+        <v>14172</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <f>(C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21+C22+C23+C24+C25)/20</f>
+        <v>19951.900000000001</v>
+      </c>
+      <c r="D26" s="2">
+        <f>(D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16+D17+D18+D19+D20+D21+D22+D23+D24+D25)/20</f>
+        <v>19948.55</v>
+      </c>
+      <c r="E26" s="2">
+        <f>(E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E18+E19+E20+E21+E22+E23+E24+E25)/20</f>
+        <v>14220.65</v>
+      </c>
+      <c r="F26" s="3">
+        <f>(F6+F7+F8+F9+F10+F11+F12+F13+F14+F15+F16+F17+F18+F19+F20+F21+F22+F23+F24+F25)/20</f>
+        <v>14192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>